--- a/po_analysis_by_asin/B0BH6XND27_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6XND27_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,257 +452,593 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>288</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>384</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>456</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>720</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>216</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>832</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>640</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>464</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45446</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>832</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45488</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>864</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45495</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>416</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45502</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>656</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45537</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45544</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45572</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1168</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45614</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B75" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -717,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,55 +1075,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>600</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1296</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1160</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1104</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1632</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1120</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>1280</v>
@@ -795,33 +1131,129 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>656</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>592</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>1776</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BH6XND27_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6XND27_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1070,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1255,6 +1256,1195 @@
       </c>
       <c r="B24" t="n">
         <v>1776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-245.1818025825996</v>
+      </c>
+      <c r="D2" t="n">
+        <v>564.9061943936537</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>146</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-239.3052679417948</v>
+      </c>
+      <c r="D3" t="n">
+        <v>568.6634497758016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-271.842556229648</v>
+      </c>
+      <c r="D4" t="n">
+        <v>543.972017898505</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-301.5136175832059</v>
+      </c>
+      <c r="D5" t="n">
+        <v>566.9742394448638</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>162</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-211.7361246213262</v>
+      </c>
+      <c r="D6" t="n">
+        <v>602.3283556378829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>166</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-225.9648177095376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>556.2771248927088</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>170</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-223.4992150723068</v>
+      </c>
+      <c r="D8" t="n">
+        <v>594.2832528839565</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>174</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-262.9882303291892</v>
+      </c>
+      <c r="D9" t="n">
+        <v>563.8930749239114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>178</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-230.0735876822071</v>
+      </c>
+      <c r="D10" t="n">
+        <v>590.9877013576095</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>182</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-241.4262126136746</v>
+      </c>
+      <c r="D11" t="n">
+        <v>585.6895053579354</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>186</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-226.3514344196527</v>
+      </c>
+      <c r="D12" t="n">
+        <v>561.305448153925</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>194</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-208.8214119561563</v>
+      </c>
+      <c r="D13" t="n">
+        <v>617.429949923956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>198</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-221.7401894242824</v>
+      </c>
+      <c r="D14" t="n">
+        <v>626.2200794316943</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>202</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-198.9860238080499</v>
+      </c>
+      <c r="D15" t="n">
+        <v>613.1126843538657</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>206</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-225.1998793714144</v>
+      </c>
+      <c r="D16" t="n">
+        <v>609.8786334283412</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>210</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-187.6157208001995</v>
+      </c>
+      <c r="D17" t="n">
+        <v>605.6472569536071</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-202.1015754793416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>641.2952415645882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>218</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-184.8751283053966</v>
+      </c>
+      <c r="D19" t="n">
+        <v>625.0171528951728</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>222</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-175.2885415033917</v>
+      </c>
+      <c r="D20" t="n">
+        <v>600.3401655277472</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>226</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-181.0019956140603</v>
+      </c>
+      <c r="D21" t="n">
+        <v>593.5741296815593</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>230</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-177.5971397170799</v>
+      </c>
+      <c r="D22" t="n">
+        <v>665.7215136152141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>234</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-176.8801874115024</v>
+      </c>
+      <c r="D23" t="n">
+        <v>609.3072894348401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>238</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-162.6696166860614</v>
+      </c>
+      <c r="D24" t="n">
+        <v>613.8410667646483</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>242</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-159.9412919393766</v>
+      </c>
+      <c r="D25" t="n">
+        <v>639.4847656964693</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>246</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-168.8237570444087</v>
+      </c>
+      <c r="D26" t="n">
+        <v>660.9730661993476</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>250</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-152.2384179664733</v>
+      </c>
+      <c r="D27" t="n">
+        <v>653.8799854889711</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>254</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-163.6662159609827</v>
+      </c>
+      <c r="D28" t="n">
+        <v>661.9947185849103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-122.5280250662382</v>
+      </c>
+      <c r="D29" t="n">
+        <v>687.4589124301591</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>266</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-106.7991275521457</v>
+      </c>
+      <c r="D30" t="n">
+        <v>670.8192577725495</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>278</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-127.4712768521209</v>
+      </c>
+      <c r="D31" t="n">
+        <v>701.6903035224941</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>282</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-119.9422441310587</v>
+      </c>
+      <c r="D32" t="n">
+        <v>670.0909973596792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>286</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-139.8802088526832</v>
+      </c>
+      <c r="D33" t="n">
+        <v>705.2777075656877</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>290</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-107.0811184137038</v>
+      </c>
+      <c r="D34" t="n">
+        <v>702.1308660180467</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>294</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-104.7570071449671</v>
+      </c>
+      <c r="D35" t="n">
+        <v>699.0363774453651</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>310</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-116.587441950214</v>
+      </c>
+      <c r="D36" t="n">
+        <v>720.9982779720104</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>314</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-94.54126658181423</v>
+      </c>
+      <c r="D37" t="n">
+        <v>697.3339362757225</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>318</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-76.92039270011524</v>
+      </c>
+      <c r="D38" t="n">
+        <v>730.8706042820584</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>322</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-92.74536743034535</v>
+      </c>
+      <c r="D39" t="n">
+        <v>721.1825731593442</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>326</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-72.7096256565593</v>
+      </c>
+      <c r="D40" t="n">
+        <v>729.8942189430238</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>330</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-73.23020700059332</v>
+      </c>
+      <c r="D41" t="n">
+        <v>715.9866534533779</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-67.38775122420883</v>
+      </c>
+      <c r="D42" t="n">
+        <v>725.8097380739562</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>338</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-55.401821695193</v>
+      </c>
+      <c r="D43" t="n">
+        <v>752.1809040232724</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>350</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-67.57990777526831</v>
+      </c>
+      <c r="D44" t="n">
+        <v>726.1329061812247</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>354</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-72.51268336064997</v>
+      </c>
+      <c r="D45" t="n">
+        <v>759.5320403826239</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>362</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-32.99187096957441</v>
+      </c>
+      <c r="D46" t="n">
+        <v>790.2577250587934</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>366</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-8.604138588427398</v>
+      </c>
+      <c r="D47" t="n">
+        <v>767.6555216911248</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>370</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-45.10357526802417</v>
+      </c>
+      <c r="D48" t="n">
+        <v>756.924358554459</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>374</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-16.81269946201979</v>
+      </c>
+      <c r="D49" t="n">
+        <v>765.3945073117931</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>378</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-27.31154178187116</v>
+      </c>
+      <c r="D50" t="n">
+        <v>806.3174200116923</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>382</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-32.40744981978147</v>
+      </c>
+      <c r="D51" t="n">
+        <v>792.5333682320403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>386</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.86083829213782</v>
+      </c>
+      <c r="D52" t="n">
+        <v>819.6863110869571</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>390</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-12.44071394731417</v>
+      </c>
+      <c r="D53" t="n">
+        <v>795.1352764237735</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>394</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-6.231727546854906</v>
+      </c>
+      <c r="D54" t="n">
+        <v>800.4883303225313</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>398</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-14.38962970346762</v>
+      </c>
+      <c r="D55" t="n">
+        <v>798.8138118563746</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>402</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-21.41209515872223</v>
+      </c>
+      <c r="D56" t="n">
+        <v>763.7602381631131</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>406</v>
+      </c>
+      <c r="C57" t="n">
+        <v>24.35991846856425</v>
+      </c>
+      <c r="D57" t="n">
+        <v>811.0312466769732</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>414</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.34705065576923</v>
+      </c>
+      <c r="D58" t="n">
+        <v>823.6411585717143</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>418</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-10.13808851515972</v>
+      </c>
+      <c r="D59" t="n">
+        <v>837.6398504930316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>422</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14.58054145491072</v>
+      </c>
+      <c r="D60" t="n">
+        <v>804.0005467191955</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>426</v>
+      </c>
+      <c r="C61" t="n">
+        <v>33.83092017558202</v>
+      </c>
+      <c r="D61" t="n">
+        <v>817.0324935201406</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>430</v>
+      </c>
+      <c r="C62" t="n">
+        <v>32.68956474352508</v>
+      </c>
+      <c r="D62" t="n">
+        <v>809.5795588962532</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>434</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4805319514152343</v>
+      </c>
+      <c r="D63" t="n">
+        <v>812.098321061637</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>438</v>
+      </c>
+      <c r="C64" t="n">
+        <v>60.63008279796053</v>
+      </c>
+      <c r="D64" t="n">
+        <v>835.0905603827168</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>442</v>
+      </c>
+      <c r="C65" t="n">
+        <v>34.55233906634367</v>
+      </c>
+      <c r="D65" t="n">
+        <v>859.227355529304</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>446</v>
+      </c>
+      <c r="C66" t="n">
+        <v>56.1703306138925</v>
+      </c>
+      <c r="D66" t="n">
+        <v>870.2846771724204</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>462</v>
+      </c>
+      <c r="C67" t="n">
+        <v>59.29399125637091</v>
+      </c>
+      <c r="D67" t="n">
+        <v>874.681910790685</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>466</v>
+      </c>
+      <c r="C68" t="n">
+        <v>61.57185963552685</v>
+      </c>
+      <c r="D68" t="n">
+        <v>897.4118036650648</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>470</v>
+      </c>
+      <c r="C69" t="n">
+        <v>65.23410271628427</v>
+      </c>
+      <c r="D69" t="n">
+        <v>876.8155998183129</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>490</v>
+      </c>
+      <c r="C70" t="n">
+        <v>65.94368405873578</v>
+      </c>
+      <c r="D70" t="n">
+        <v>910.8730523217528</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>494</v>
+      </c>
+      <c r="C71" t="n">
+        <v>54.06030864762864</v>
+      </c>
+      <c r="D71" t="n">
+        <v>892.7855432928587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>498</v>
+      </c>
+      <c r="C72" t="n">
+        <v>92.05979612700824</v>
+      </c>
+      <c r="D72" t="n">
+        <v>920.2688625723267</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>510</v>
+      </c>
+      <c r="C73" t="n">
+        <v>91.87931565949205</v>
+      </c>
+      <c r="D73" t="n">
+        <v>935.8710229693809</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>522</v>
+      </c>
+      <c r="C74" t="n">
+        <v>128.7603567256844</v>
+      </c>
+      <c r="D74" t="n">
+        <v>959.1316360222828</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>534</v>
+      </c>
+      <c r="C75" t="n">
+        <v>135.6040548908716</v>
+      </c>
+      <c r="D75" t="n">
+        <v>938.3243702723009</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>539</v>
+      </c>
+      <c r="C76" t="n">
+        <v>131.4253154286945</v>
+      </c>
+      <c r="D76" t="n">
+        <v>958.057636037012</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>543</v>
+      </c>
+      <c r="C77" t="n">
+        <v>163.9279740841779</v>
+      </c>
+      <c r="D77" t="n">
+        <v>982.2108666700436</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>547</v>
+      </c>
+      <c r="C78" t="n">
+        <v>135.6248489029222</v>
+      </c>
+      <c r="D78" t="n">
+        <v>946.4398993285247</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>551</v>
+      </c>
+      <c r="C79" t="n">
+        <v>156.5516586298905</v>
+      </c>
+      <c r="D79" t="n">
+        <v>937.5880184717632</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>555</v>
+      </c>
+      <c r="C80" t="n">
+        <v>133.9904199085311</v>
+      </c>
+      <c r="D80" t="n">
+        <v>957.8164479011909</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>559</v>
+      </c>
+      <c r="C81" t="n">
+        <v>156.3733459522105</v>
+      </c>
+      <c r="D81" t="n">
+        <v>996.4416003408297</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>563</v>
+      </c>
+      <c r="C82" t="n">
+        <v>157.7245326052636</v>
+      </c>
+      <c r="D82" t="n">
+        <v>971.4934940466129</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>567</v>
+      </c>
+      <c r="C83" t="n">
+        <v>187.3964844471547</v>
+      </c>
+      <c r="D83" t="n">
+        <v>970.9067911032015</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH6XND27_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH6XND27_po_data.xlsx
@@ -1269,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,16 +1288,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1306,12 +1296,6 @@
       <c r="B2" t="n">
         <v>142</v>
       </c>
-      <c r="C2" t="n">
-        <v>-245.1818025825996</v>
-      </c>
-      <c r="D2" t="n">
-        <v>564.9061943936537</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1320,12 +1304,6 @@
       <c r="B3" t="n">
         <v>146</v>
       </c>
-      <c r="C3" t="n">
-        <v>-239.3052679417948</v>
-      </c>
-      <c r="D3" t="n">
-        <v>568.6634497758016</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1334,12 +1312,6 @@
       <c r="B4" t="n">
         <v>150</v>
       </c>
-      <c r="C4" t="n">
-        <v>-271.842556229648</v>
-      </c>
-      <c r="D4" t="n">
-        <v>543.972017898505</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1348,12 +1320,6 @@
       <c r="B5" t="n">
         <v>154</v>
       </c>
-      <c r="C5" t="n">
-        <v>-301.5136175832059</v>
-      </c>
-      <c r="D5" t="n">
-        <v>566.9742394448638</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1362,12 +1328,6 @@
       <c r="B6" t="n">
         <v>162</v>
       </c>
-      <c r="C6" t="n">
-        <v>-211.7361246213262</v>
-      </c>
-      <c r="D6" t="n">
-        <v>602.3283556378829</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1376,12 +1336,6 @@
       <c r="B7" t="n">
         <v>166</v>
       </c>
-      <c r="C7" t="n">
-        <v>-225.9648177095376</v>
-      </c>
-      <c r="D7" t="n">
-        <v>556.2771248927088</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1390,12 +1344,6 @@
       <c r="B8" t="n">
         <v>170</v>
       </c>
-      <c r="C8" t="n">
-        <v>-223.4992150723068</v>
-      </c>
-      <c r="D8" t="n">
-        <v>594.2832528839565</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1404,12 +1352,6 @@
       <c r="B9" t="n">
         <v>174</v>
       </c>
-      <c r="C9" t="n">
-        <v>-262.9882303291892</v>
-      </c>
-      <c r="D9" t="n">
-        <v>563.8930749239114</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1418,12 +1360,6 @@
       <c r="B10" t="n">
         <v>178</v>
       </c>
-      <c r="C10" t="n">
-        <v>-230.0735876822071</v>
-      </c>
-      <c r="D10" t="n">
-        <v>590.9877013576095</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1432,12 +1368,6 @@
       <c r="B11" t="n">
         <v>182</v>
       </c>
-      <c r="C11" t="n">
-        <v>-241.4262126136746</v>
-      </c>
-      <c r="D11" t="n">
-        <v>585.6895053579354</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1446,12 +1376,6 @@
       <c r="B12" t="n">
         <v>186</v>
       </c>
-      <c r="C12" t="n">
-        <v>-226.3514344196527</v>
-      </c>
-      <c r="D12" t="n">
-        <v>561.305448153925</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1460,12 +1384,6 @@
       <c r="B13" t="n">
         <v>194</v>
       </c>
-      <c r="C13" t="n">
-        <v>-208.8214119561563</v>
-      </c>
-      <c r="D13" t="n">
-        <v>617.429949923956</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1474,12 +1392,6 @@
       <c r="B14" t="n">
         <v>198</v>
       </c>
-      <c r="C14" t="n">
-        <v>-221.7401894242824</v>
-      </c>
-      <c r="D14" t="n">
-        <v>626.2200794316943</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1488,12 +1400,6 @@
       <c r="B15" t="n">
         <v>202</v>
       </c>
-      <c r="C15" t="n">
-        <v>-198.9860238080499</v>
-      </c>
-      <c r="D15" t="n">
-        <v>613.1126843538657</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1502,12 +1408,6 @@
       <c r="B16" t="n">
         <v>206</v>
       </c>
-      <c r="C16" t="n">
-        <v>-225.1998793714144</v>
-      </c>
-      <c r="D16" t="n">
-        <v>609.8786334283412</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1516,12 +1416,6 @@
       <c r="B17" t="n">
         <v>210</v>
       </c>
-      <c r="C17" t="n">
-        <v>-187.6157208001995</v>
-      </c>
-      <c r="D17" t="n">
-        <v>605.6472569536071</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1530,12 +1424,6 @@
       <c r="B18" t="n">
         <v>214</v>
       </c>
-      <c r="C18" t="n">
-        <v>-202.1015754793416</v>
-      </c>
-      <c r="D18" t="n">
-        <v>641.2952415645882</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1544,12 +1432,6 @@
       <c r="B19" t="n">
         <v>218</v>
       </c>
-      <c r="C19" t="n">
-        <v>-184.8751283053966</v>
-      </c>
-      <c r="D19" t="n">
-        <v>625.0171528951728</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1558,12 +1440,6 @@
       <c r="B20" t="n">
         <v>222</v>
       </c>
-      <c r="C20" t="n">
-        <v>-175.2885415033917</v>
-      </c>
-      <c r="D20" t="n">
-        <v>600.3401655277472</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,12 +1448,6 @@
       <c r="B21" t="n">
         <v>226</v>
       </c>
-      <c r="C21" t="n">
-        <v>-181.0019956140603</v>
-      </c>
-      <c r="D21" t="n">
-        <v>593.5741296815593</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1586,12 +1456,6 @@
       <c r="B22" t="n">
         <v>230</v>
       </c>
-      <c r="C22" t="n">
-        <v>-177.5971397170799</v>
-      </c>
-      <c r="D22" t="n">
-        <v>665.7215136152141</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1600,12 +1464,6 @@
       <c r="B23" t="n">
         <v>234</v>
       </c>
-      <c r="C23" t="n">
-        <v>-176.8801874115024</v>
-      </c>
-      <c r="D23" t="n">
-        <v>609.3072894348401</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1614,12 +1472,6 @@
       <c r="B24" t="n">
         <v>238</v>
       </c>
-      <c r="C24" t="n">
-        <v>-162.6696166860614</v>
-      </c>
-      <c r="D24" t="n">
-        <v>613.8410667646483</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1628,12 +1480,6 @@
       <c r="B25" t="n">
         <v>242</v>
       </c>
-      <c r="C25" t="n">
-        <v>-159.9412919393766</v>
-      </c>
-      <c r="D25" t="n">
-        <v>639.4847656964693</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1642,12 +1488,6 @@
       <c r="B26" t="n">
         <v>246</v>
       </c>
-      <c r="C26" t="n">
-        <v>-168.8237570444087</v>
-      </c>
-      <c r="D26" t="n">
-        <v>660.9730661993476</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1656,12 +1496,6 @@
       <c r="B27" t="n">
         <v>250</v>
       </c>
-      <c r="C27" t="n">
-        <v>-152.2384179664733</v>
-      </c>
-      <c r="D27" t="n">
-        <v>653.8799854889711</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1670,12 +1504,6 @@
       <c r="B28" t="n">
         <v>254</v>
       </c>
-      <c r="C28" t="n">
-        <v>-163.6662159609827</v>
-      </c>
-      <c r="D28" t="n">
-        <v>661.9947185849103</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1684,12 +1512,6 @@
       <c r="B29" t="n">
         <v>258</v>
       </c>
-      <c r="C29" t="n">
-        <v>-122.5280250662382</v>
-      </c>
-      <c r="D29" t="n">
-        <v>687.4589124301591</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1698,12 +1520,6 @@
       <c r="B30" t="n">
         <v>266</v>
       </c>
-      <c r="C30" t="n">
-        <v>-106.7991275521457</v>
-      </c>
-      <c r="D30" t="n">
-        <v>670.8192577725495</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1712,12 +1528,6 @@
       <c r="B31" t="n">
         <v>278</v>
       </c>
-      <c r="C31" t="n">
-        <v>-127.4712768521209</v>
-      </c>
-      <c r="D31" t="n">
-        <v>701.6903035224941</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1726,12 +1536,6 @@
       <c r="B32" t="n">
         <v>282</v>
       </c>
-      <c r="C32" t="n">
-        <v>-119.9422441310587</v>
-      </c>
-      <c r="D32" t="n">
-        <v>670.0909973596792</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1740,12 +1544,6 @@
       <c r="B33" t="n">
         <v>286</v>
       </c>
-      <c r="C33" t="n">
-        <v>-139.8802088526832</v>
-      </c>
-      <c r="D33" t="n">
-        <v>705.2777075656877</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1754,12 +1552,6 @@
       <c r="B34" t="n">
         <v>290</v>
       </c>
-      <c r="C34" t="n">
-        <v>-107.0811184137038</v>
-      </c>
-      <c r="D34" t="n">
-        <v>702.1308660180467</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1768,12 +1560,6 @@
       <c r="B35" t="n">
         <v>294</v>
       </c>
-      <c r="C35" t="n">
-        <v>-104.7570071449671</v>
-      </c>
-      <c r="D35" t="n">
-        <v>699.0363774453651</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1782,12 +1568,6 @@
       <c r="B36" t="n">
         <v>310</v>
       </c>
-      <c r="C36" t="n">
-        <v>-116.587441950214</v>
-      </c>
-      <c r="D36" t="n">
-        <v>720.9982779720104</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1796,12 +1576,6 @@
       <c r="B37" t="n">
         <v>314</v>
       </c>
-      <c r="C37" t="n">
-        <v>-94.54126658181423</v>
-      </c>
-      <c r="D37" t="n">
-        <v>697.3339362757225</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1810,12 +1584,6 @@
       <c r="B38" t="n">
         <v>318</v>
       </c>
-      <c r="C38" t="n">
-        <v>-76.92039270011524</v>
-      </c>
-      <c r="D38" t="n">
-        <v>730.8706042820584</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1824,12 +1592,6 @@
       <c r="B39" t="n">
         <v>322</v>
       </c>
-      <c r="C39" t="n">
-        <v>-92.74536743034535</v>
-      </c>
-      <c r="D39" t="n">
-        <v>721.1825731593442</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1838,12 +1600,6 @@
       <c r="B40" t="n">
         <v>326</v>
       </c>
-      <c r="C40" t="n">
-        <v>-72.7096256565593</v>
-      </c>
-      <c r="D40" t="n">
-        <v>729.8942189430238</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1852,12 +1608,6 @@
       <c r="B41" t="n">
         <v>330</v>
       </c>
-      <c r="C41" t="n">
-        <v>-73.23020700059332</v>
-      </c>
-      <c r="D41" t="n">
-        <v>715.9866534533779</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1866,12 +1616,6 @@
       <c r="B42" t="n">
         <v>334</v>
       </c>
-      <c r="C42" t="n">
-        <v>-67.38775122420883</v>
-      </c>
-      <c r="D42" t="n">
-        <v>725.8097380739562</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1880,12 +1624,6 @@
       <c r="B43" t="n">
         <v>338</v>
       </c>
-      <c r="C43" t="n">
-        <v>-55.401821695193</v>
-      </c>
-      <c r="D43" t="n">
-        <v>752.1809040232724</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1894,12 +1632,6 @@
       <c r="B44" t="n">
         <v>350</v>
       </c>
-      <c r="C44" t="n">
-        <v>-67.57990777526831</v>
-      </c>
-      <c r="D44" t="n">
-        <v>726.1329061812247</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1908,12 +1640,6 @@
       <c r="B45" t="n">
         <v>354</v>
       </c>
-      <c r="C45" t="n">
-        <v>-72.51268336064997</v>
-      </c>
-      <c r="D45" t="n">
-        <v>759.5320403826239</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1922,12 +1648,6 @@
       <c r="B46" t="n">
         <v>362</v>
       </c>
-      <c r="C46" t="n">
-        <v>-32.99187096957441</v>
-      </c>
-      <c r="D46" t="n">
-        <v>790.2577250587934</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1936,12 +1656,6 @@
       <c r="B47" t="n">
         <v>366</v>
       </c>
-      <c r="C47" t="n">
-        <v>-8.604138588427398</v>
-      </c>
-      <c r="D47" t="n">
-        <v>767.6555216911248</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1950,12 +1664,6 @@
       <c r="B48" t="n">
         <v>370</v>
       </c>
-      <c r="C48" t="n">
-        <v>-45.10357526802417</v>
-      </c>
-      <c r="D48" t="n">
-        <v>756.924358554459</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1964,12 +1672,6 @@
       <c r="B49" t="n">
         <v>374</v>
       </c>
-      <c r="C49" t="n">
-        <v>-16.81269946201979</v>
-      </c>
-      <c r="D49" t="n">
-        <v>765.3945073117931</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1978,12 +1680,6 @@
       <c r="B50" t="n">
         <v>378</v>
       </c>
-      <c r="C50" t="n">
-        <v>-27.31154178187116</v>
-      </c>
-      <c r="D50" t="n">
-        <v>806.3174200116923</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1992,12 +1688,6 @@
       <c r="B51" t="n">
         <v>382</v>
       </c>
-      <c r="C51" t="n">
-        <v>-32.40744981978147</v>
-      </c>
-      <c r="D51" t="n">
-        <v>792.5333682320403</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2006,12 +1696,6 @@
       <c r="B52" t="n">
         <v>386</v>
       </c>
-      <c r="C52" t="n">
-        <v>15.86083829213782</v>
-      </c>
-      <c r="D52" t="n">
-        <v>819.6863110869571</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2020,12 +1704,6 @@
       <c r="B53" t="n">
         <v>390</v>
       </c>
-      <c r="C53" t="n">
-        <v>-12.44071394731417</v>
-      </c>
-      <c r="D53" t="n">
-        <v>795.1352764237735</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2034,12 +1712,6 @@
       <c r="B54" t="n">
         <v>394</v>
       </c>
-      <c r="C54" t="n">
-        <v>-6.231727546854906</v>
-      </c>
-      <c r="D54" t="n">
-        <v>800.4883303225313</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2048,12 +1720,6 @@
       <c r="B55" t="n">
         <v>398</v>
       </c>
-      <c r="C55" t="n">
-        <v>-14.38962970346762</v>
-      </c>
-      <c r="D55" t="n">
-        <v>798.8138118563746</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2062,12 +1728,6 @@
       <c r="B56" t="n">
         <v>402</v>
       </c>
-      <c r="C56" t="n">
-        <v>-21.41209515872223</v>
-      </c>
-      <c r="D56" t="n">
-        <v>763.7602381631131</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2076,12 +1736,6 @@
       <c r="B57" t="n">
         <v>406</v>
       </c>
-      <c r="C57" t="n">
-        <v>24.35991846856425</v>
-      </c>
-      <c r="D57" t="n">
-        <v>811.0312466769732</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2090,12 +1744,6 @@
       <c r="B58" t="n">
         <v>414</v>
       </c>
-      <c r="C58" t="n">
-        <v>2.34705065576923</v>
-      </c>
-      <c r="D58" t="n">
-        <v>823.6411585717143</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2104,12 +1752,6 @@
       <c r="B59" t="n">
         <v>418</v>
       </c>
-      <c r="C59" t="n">
-        <v>-10.13808851515972</v>
-      </c>
-      <c r="D59" t="n">
-        <v>837.6398504930316</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2118,12 +1760,6 @@
       <c r="B60" t="n">
         <v>422</v>
       </c>
-      <c r="C60" t="n">
-        <v>14.58054145491072</v>
-      </c>
-      <c r="D60" t="n">
-        <v>804.0005467191955</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2132,12 +1768,6 @@
       <c r="B61" t="n">
         <v>426</v>
       </c>
-      <c r="C61" t="n">
-        <v>33.83092017558202</v>
-      </c>
-      <c r="D61" t="n">
-        <v>817.0324935201406</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2146,12 +1776,6 @@
       <c r="B62" t="n">
         <v>430</v>
       </c>
-      <c r="C62" t="n">
-        <v>32.68956474352508</v>
-      </c>
-      <c r="D62" t="n">
-        <v>809.5795588962532</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2160,12 +1784,6 @@
       <c r="B63" t="n">
         <v>434</v>
       </c>
-      <c r="C63" t="n">
-        <v>0.4805319514152343</v>
-      </c>
-      <c r="D63" t="n">
-        <v>812.098321061637</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2174,12 +1792,6 @@
       <c r="B64" t="n">
         <v>438</v>
       </c>
-      <c r="C64" t="n">
-        <v>60.63008279796053</v>
-      </c>
-      <c r="D64" t="n">
-        <v>835.0905603827168</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2188,12 +1800,6 @@
       <c r="B65" t="n">
         <v>442</v>
       </c>
-      <c r="C65" t="n">
-        <v>34.55233906634367</v>
-      </c>
-      <c r="D65" t="n">
-        <v>859.227355529304</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2202,12 +1808,6 @@
       <c r="B66" t="n">
         <v>446</v>
       </c>
-      <c r="C66" t="n">
-        <v>56.1703306138925</v>
-      </c>
-      <c r="D66" t="n">
-        <v>870.2846771724204</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2216,12 +1816,6 @@
       <c r="B67" t="n">
         <v>462</v>
       </c>
-      <c r="C67" t="n">
-        <v>59.29399125637091</v>
-      </c>
-      <c r="D67" t="n">
-        <v>874.681910790685</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2230,12 +1824,6 @@
       <c r="B68" t="n">
         <v>466</v>
       </c>
-      <c r="C68" t="n">
-        <v>61.57185963552685</v>
-      </c>
-      <c r="D68" t="n">
-        <v>897.4118036650648</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2244,12 +1832,6 @@
       <c r="B69" t="n">
         <v>470</v>
       </c>
-      <c r="C69" t="n">
-        <v>65.23410271628427</v>
-      </c>
-      <c r="D69" t="n">
-        <v>876.8155998183129</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2258,12 +1840,6 @@
       <c r="B70" t="n">
         <v>490</v>
       </c>
-      <c r="C70" t="n">
-        <v>65.94368405873578</v>
-      </c>
-      <c r="D70" t="n">
-        <v>910.8730523217528</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2272,12 +1848,6 @@
       <c r="B71" t="n">
         <v>494</v>
       </c>
-      <c r="C71" t="n">
-        <v>54.06030864762864</v>
-      </c>
-      <c r="D71" t="n">
-        <v>892.7855432928587</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2286,12 +1856,6 @@
       <c r="B72" t="n">
         <v>498</v>
       </c>
-      <c r="C72" t="n">
-        <v>92.05979612700824</v>
-      </c>
-      <c r="D72" t="n">
-        <v>920.2688625723267</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2300,12 +1864,6 @@
       <c r="B73" t="n">
         <v>510</v>
       </c>
-      <c r="C73" t="n">
-        <v>91.87931565949205</v>
-      </c>
-      <c r="D73" t="n">
-        <v>935.8710229693809</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2314,12 +1872,6 @@
       <c r="B74" t="n">
         <v>522</v>
       </c>
-      <c r="C74" t="n">
-        <v>128.7603567256844</v>
-      </c>
-      <c r="D74" t="n">
-        <v>959.1316360222828</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2328,12 +1880,6 @@
       <c r="B75" t="n">
         <v>534</v>
       </c>
-      <c r="C75" t="n">
-        <v>135.6040548908716</v>
-      </c>
-      <c r="D75" t="n">
-        <v>938.3243702723009</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2342,12 +1888,6 @@
       <c r="B76" t="n">
         <v>539</v>
       </c>
-      <c r="C76" t="n">
-        <v>131.4253154286945</v>
-      </c>
-      <c r="D76" t="n">
-        <v>958.057636037012</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2356,12 +1896,6 @@
       <c r="B77" t="n">
         <v>543</v>
       </c>
-      <c r="C77" t="n">
-        <v>163.9279740841779</v>
-      </c>
-      <c r="D77" t="n">
-        <v>982.2108666700436</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2370,12 +1904,6 @@
       <c r="B78" t="n">
         <v>547</v>
       </c>
-      <c r="C78" t="n">
-        <v>135.6248489029222</v>
-      </c>
-      <c r="D78" t="n">
-        <v>946.4398993285247</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2384,12 +1912,6 @@
       <c r="B79" t="n">
         <v>551</v>
       </c>
-      <c r="C79" t="n">
-        <v>156.5516586298905</v>
-      </c>
-      <c r="D79" t="n">
-        <v>937.5880184717632</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2398,12 +1920,6 @@
       <c r="B80" t="n">
         <v>555</v>
       </c>
-      <c r="C80" t="n">
-        <v>133.9904199085311</v>
-      </c>
-      <c r="D80" t="n">
-        <v>957.8164479011909</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2412,12 +1928,6 @@
       <c r="B81" t="n">
         <v>559</v>
       </c>
-      <c r="C81" t="n">
-        <v>156.3733459522105</v>
-      </c>
-      <c r="D81" t="n">
-        <v>996.4416003408297</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2426,12 +1936,6 @@
       <c r="B82" t="n">
         <v>563</v>
       </c>
-      <c r="C82" t="n">
-        <v>157.7245326052636</v>
-      </c>
-      <c r="D82" t="n">
-        <v>971.4934940466129</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2439,12 +1943,6 @@
       </c>
       <c r="B83" t="n">
         <v>567</v>
-      </c>
-      <c r="C83" t="n">
-        <v>187.3964844471547</v>
-      </c>
-      <c r="D83" t="n">
-        <v>970.9067911032015</v>
       </c>
     </row>
   </sheetData>
